--- a/poverty_measurement/input/indice_precios_nacional_metocol.xlsx
+++ b/poverty_measurement/input/indice_precios_nacional_metocol.xlsx
@@ -115,13 +115,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>46249.068725585938</v>
+        <v>47577.216926574707</v>
       </c>
       <c r="C2" s="1">
-        <v>87126.6328125</v>
+        <v>88404.6640625</v>
       </c>
       <c r="D2" s="1">
-        <v>53.082584381103516</v>
+        <v>53.817543029785156</v>
       </c>
       <c r="E2" s="2">
         <v>43770</v>
@@ -132,13 +132,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45773.001876831055</v>
+        <v>46732.700668334961</v>
       </c>
       <c r="C3" s="1">
-        <v>87126.6328125</v>
+        <v>88404.6640625</v>
       </c>
       <c r="D3" s="1">
-        <v>52.536178588867188</v>
+        <v>52.862255096435547</v>
       </c>
       <c r="E3" s="2">
         <v>43800</v>
@@ -149,13 +149,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>75656.264221191406</v>
+        <v>75536.823303222656</v>
       </c>
       <c r="C4" s="1">
-        <v>87126.6328125</v>
+        <v>88404.6640625</v>
       </c>
       <c r="D4" s="1">
-        <v>86.834831237792969</v>
+        <v>85.444389343261719</v>
       </c>
       <c r="E4" s="2">
         <v>43831</v>
@@ -166,10 +166,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>87126.630950927734</v>
+        <v>88404.666595458984</v>
       </c>
       <c r="C5" s="1">
-        <v>87126.6328125</v>
+        <v>88404.6640625</v>
       </c>
       <c r="D5" s="1">
         <v>100</v>
@@ -183,13 +183,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>89799.470458984375</v>
+        <v>91665.790893554688</v>
       </c>
       <c r="C6" s="1">
-        <v>87126.6328125</v>
+        <v>88404.6640625</v>
       </c>
       <c r="D6" s="1">
-        <v>103.06776428222656</v>
+        <v>103.68886566162109</v>
       </c>
       <c r="E6" s="2">
         <v>43891</v>
